--- a/LBDL/testOutput.xlsx
+++ b/LBDL/testOutput.xlsx
@@ -12,9 +12,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>This is a string</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+  <si>
+    <t>Pat Butler Elementary School</t>
+  </si>
+  <si>
+    <t>Harloe Elementary</t>
+  </si>
+  <si>
+    <t>Dorothea Lange Elementary School</t>
+  </si>
+  <si>
+    <t>KERMIT KING ELEMENTARY SCHOOL</t>
+  </si>
+  <si>
+    <t>Mary Buren Elementary</t>
+  </si>
+  <si>
+    <t>Isaac Miller Elementary School</t>
+  </si>
+  <si>
+    <t>Ocean View Elementary</t>
+  </si>
+  <si>
+    <t>Branciforte Middle School</t>
+  </si>
+  <si>
+    <t>Shell Beach Elementary</t>
+  </si>
+  <si>
+    <t>San Ardo School</t>
+  </si>
+  <si>
+    <t>Hawthorne Elementary School</t>
+  </si>
+  <si>
+    <t>Francisco Jimenez Elementary</t>
+  </si>
+  <si>
+    <t>Tunnell Elementary School</t>
+  </si>
+  <si>
+    <t>Family Partnership Charter School</t>
+  </si>
+  <si>
+    <t>Fesler Jr. High</t>
+  </si>
+  <si>
+    <t>Winifred Pifer Elementary</t>
+  </si>
+  <si>
+    <t>Shandon Elementary School</t>
+  </si>
+  <si>
+    <t>Juan Pacifico Ontiveros</t>
+  </si>
+  <si>
+    <t>Atascadero Fine Arts Academy</t>
+  </si>
+  <si>
+    <t>Virginia Peterson</t>
+  </si>
+  <si>
+    <t>San Luis Obispo Christian School</t>
+  </si>
+  <si>
+    <t>St. Patrick Catholic School</t>
+  </si>
+  <si>
+    <t>Kermit Mckenzie Junior High</t>
+  </si>
+  <si>
+    <t>Alvin Elementary School</t>
+  </si>
+  <si>
+    <t>Creston Elementary School</t>
+  </si>
+  <si>
+    <t>Bauer Speck Arts Magnet Elementary School</t>
+  </si>
+  <si>
+    <t>St. Patrick School</t>
+  </si>
+  <si>
+    <t>Bradley Union School</t>
+  </si>
+  <si>
+    <t>Charles E. Teach Elementary School</t>
+  </si>
+  <si>
+    <t>Leonora Fillmore Elementary School</t>
+  </si>
+  <si>
+    <t>Benjamin Foxen Elementary</t>
+  </si>
+  <si>
+    <t>Coastal Christian School</t>
+  </si>
+  <si>
+    <t>San Benito Road Elementary</t>
+  </si>
+  <si>
+    <t>Tidelands Academy</t>
+  </si>
+  <si>
+    <t>Lillian Larsen School</t>
+  </si>
+  <si>
+    <t>Atascaero Fine Arts Academy</t>
+  </si>
+  <si>
+    <t>Saint Rose Catholic School</t>
+  </si>
+  <si>
+    <t>Grover Beach Elementary School</t>
   </si>
 </sst>
 </file>
@@ -67,13 +178,706 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.2</v>
+        <v>1.0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="b">
+      <c r="C1" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>79.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.6000000000000227</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.6000000000000227</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.8999999999999773</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="n">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="n">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="n">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="n">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="n">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="n">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="n">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="n">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="n">
+        <v>60.0</v>
       </c>
     </row>
   </sheetData>
